--- a/techniqo/data_new_ticker/TCIEXP.xlsx
+++ b/techniqo/data_new_ticker/TCIEXP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G927"/>
+  <dimension ref="A1:G929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32831,6 +32831,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>859.9</v>
+      </c>
+      <c r="C928" t="n">
+        <v>911</v>
+      </c>
+      <c r="D928" t="n">
+        <v>843.2</v>
+      </c>
+      <c r="E928" t="n">
+        <v>870.35</v>
+      </c>
+      <c r="F928" t="n">
+        <v>78167</v>
+      </c>
+      <c r="G928" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>881.3</v>
+      </c>
+      <c r="C929" t="n">
+        <v>888.25</v>
+      </c>
+      <c r="D929" t="n">
+        <v>861.05</v>
+      </c>
+      <c r="E929" t="n">
+        <v>886.15</v>
+      </c>
+      <c r="F929" t="n">
+        <v>27874</v>
+      </c>
+      <c r="G929" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TCIEXP.xlsx
+++ b/techniqo/data_new_ticker/TCIEXP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G929"/>
+  <dimension ref="A1:G931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32881,6 +32881,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>894</v>
+      </c>
+      <c r="C930" t="n">
+        <v>894</v>
+      </c>
+      <c r="D930" t="n">
+        <v>861.35</v>
+      </c>
+      <c r="E930" t="n">
+        <v>870.55</v>
+      </c>
+      <c r="F930" t="n">
+        <v>35852</v>
+      </c>
+      <c r="G930" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>881</v>
+      </c>
+      <c r="C931" t="n">
+        <v>881</v>
+      </c>
+      <c r="D931" t="n">
+        <v>862</v>
+      </c>
+      <c r="E931" t="n">
+        <v>867.45</v>
+      </c>
+      <c r="F931" t="n">
+        <v>27911</v>
+      </c>
+      <c r="G931" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
